--- a/data/trans_orig/P14C26-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C26-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2E37341-E838-4525-8BA9-803A3680E890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C421844-F4E6-4506-8F17-DAC8969CFD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6DA7C61B-CCF5-440A-90C4-47D108EC82B6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{16000640-3882-4CF9-879E-3398DFE76CEA}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="167">
   <si>
     <t>Población según el tiempo de diagnóstico del hipoacusia en 2015 (Tasa respuesta: 1,61%)</t>
   </si>
@@ -92,10 +92,10 @@
     <t>59,61%</t>
   </si>
   <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -119,10 +119,10 @@
     <t>25,48%</t>
   </si>
   <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -143,7 +143,7 @@
     <t>14,91%</t>
   </si>
   <si>
-    <t>42,84%</t>
+    <t>44,41%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,7 +161,7 @@
     <t>63,61%</t>
   </si>
   <si>
-    <t>16,98%</t>
+    <t>13,96%</t>
   </si>
   <si>
     <t>39,26%</t>
@@ -173,15 +173,12 @@
     <t>36,39%</t>
   </si>
   <si>
-    <t>83,02%</t>
+    <t>86,04%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
     <t>26,42%</t>
   </si>
   <si>
@@ -197,7 +194,7 @@
     <t>59,48%</t>
   </si>
   <si>
-    <t>16,45%</t>
+    <t>8,81%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -215,7 +212,7 @@
     <t>40,52%</t>
   </si>
   <si>
-    <t>83,55%</t>
+    <t>91,19%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -224,7 +221,7 @@
     <t>84,47%</t>
   </si>
   <si>
-    <t>30,46%</t>
+    <t>29,55%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -233,19 +230,19 @@
     <t>89,62%</t>
   </si>
   <si>
-    <t>47,93%</t>
+    <t>53,04%</t>
   </si>
   <si>
     <t>15,53%</t>
   </si>
   <si>
-    <t>69,54%</t>
+    <t>70,45%</t>
   </si>
   <si>
     <t>10,38%</t>
   </si>
   <si>
-    <t>52,07%</t>
+    <t>46,96%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -257,25 +254,25 @@
     <t>90,11%</t>
   </si>
   <si>
-    <t>47,5%</t>
+    <t>44,33%</t>
   </si>
   <si>
     <t>92,38%</t>
   </si>
   <si>
-    <t>64,26%</t>
+    <t>64,0%</t>
   </si>
   <si>
     <t>9,89%</t>
   </si>
   <si>
-    <t>52,5%</t>
+    <t>55,67%</t>
   </si>
   <si>
     <t>7,62%</t>
   </si>
   <si>
-    <t>35,74%</t>
+    <t>36,0%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -287,7 +284,7 @@
     <t>80,03%</t>
   </si>
   <si>
-    <t>20,77%</t>
+    <t>18,89%</t>
   </si>
   <si>
     <t>72,0%</t>
@@ -299,16 +296,16 @@
     <t>75,08%</t>
   </si>
   <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
   </si>
   <si>
     <t>19,97%</t>
   </si>
   <si>
-    <t>79,23%</t>
+    <t>81,11%</t>
   </si>
   <si>
     <t>28,0%</t>
@@ -320,91 +317,94 @@
     <t>24,92%</t>
   </si>
   <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
     <t>39,96%</t>
   </si>
   <si>
     <t>12,88%</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
   </si>
   <si>
     <t>11,3%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -413,10 +413,10 @@
     <t>69,3%</t>
   </si>
   <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
   </si>
   <si>
     <t>81,9%</t>
@@ -428,19 +428,19 @@
     <t>73,96%</t>
   </si>
   <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
   </si>
   <si>
     <t>30,7%</t>
   </si>
   <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
   </si>
   <si>
     <t>18,1%</t>
@@ -452,91 +452,88 @@
     <t>26,04%</t>
   </si>
   <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
   </si>
   <si>
     <t>71,68%</t>
   </si>
   <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
   </si>
   <si>
     <t>71,16%</t>
   </si>
   <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
   </si>
   <si>
     <t>23,43%</t>
   </si>
   <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
   </si>
   <si>
     <t>19,84%</t>
   </si>
   <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
+    <t>32,37%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
   </si>
   <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
   </si>
   <si>
     <t>7,5%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -951,7 +948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3053CD22-6F8B-462F-B86B-1001B875F2DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF9AFF3-2454-4DA9-A44A-9DB7D0E9D768}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1389,7 +1386,7 @@
         <v>46</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1404,7 +1401,7 @@
         <v>46</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1419,7 +1416,7 @@
         <v>46</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1475,7 +1472,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1487,7 +1484,7 @@
         <v>783</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>22</v>
@@ -1502,7 +1499,7 @@
         <v>2135</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>22</v>
@@ -1517,10 +1514,10 @@
         <v>2917</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>13</v>
@@ -1544,7 +1541,7 @@
         <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1559,7 +1556,7 @@
         <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1574,7 +1571,7 @@
         <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1589,7 +1586,7 @@
         <v>938</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>22</v>
@@ -1604,7 +1601,7 @@
         <v>1050</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
@@ -1619,13 +1616,13 @@
         <v>1988</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1681,7 +1678,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1693,10 +1690,10 @@
         <v>5207</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -1711,7 +1708,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -1723,10 +1720,10 @@
         <v>8266</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -1744,13 +1741,13 @@
         <v>957</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1765,7 +1762,7 @@
         <v>46</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -1774,13 +1771,13 @@
         <v>957</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1801,7 +1798,7 @@
         <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1816,7 +1813,7 @@
         <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1831,7 +1828,7 @@
         <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1887,7 +1884,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1902,7 +1899,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>36</v>
@@ -1914,10 +1911,10 @@
         <v>7907</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -1929,10 +1926,10 @@
         <v>10519</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>13</v>
@@ -1956,7 +1953,7 @@
         <v>46</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -1965,13 +1962,13 @@
         <v>868</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -1980,13 +1977,13 @@
         <v>868</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,7 +2004,7 @@
         <v>46</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2022,7 +2019,7 @@
         <v>46</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2037,7 +2034,7 @@
         <v>46</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2093,7 +2090,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2105,10 +2102,10 @@
         <v>4035</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
@@ -2120,10 +2117,10 @@
         <v>5842</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
@@ -2135,13 +2132,13 @@
         <v>9877</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2156,13 +2153,13 @@
         <v>1007</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2171,13 +2168,13 @@
         <v>2272</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -2186,13 +2183,13 @@
         <v>3279</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2213,7 +2210,7 @@
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2228,7 +2225,7 @@
         <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2243,7 +2240,7 @@
         <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,7 +2296,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2311,13 +2308,13 @@
         <v>7410</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -2326,13 +2323,13 @@
         <v>16552</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -2341,13 +2338,13 @@
         <v>23962</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,13 +2359,13 @@
         <v>3212</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -2377,13 +2374,13 @@
         <v>5630</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -2392,13 +2389,13 @@
         <v>8842</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,7 +2410,7 @@
         <v>898</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>22</v>
@@ -2625,7 +2622,7 @@
         <v>46</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2640,7 +2637,7 @@
         <v>46</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2792,10 +2789,10 @@
         <v>152</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M37" s="7">
         <v>22</v>
@@ -2804,13 +2801,13 @@
         <v>23627</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,13 +2822,13 @@
         <v>2828</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H38" s="7">
         <v>5</v>
@@ -2840,13 +2837,13 @@
         <v>5480</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M38" s="7">
         <v>8</v>
@@ -2855,13 +2852,13 @@
         <v>8307</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,7 +2914,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C26-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C26-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C421844-F4E6-4506-8F17-DAC8969CFD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43B4DFC4-ACE1-4DDC-A310-70DF0BEA6AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{16000640-3882-4CF9-879E-3398DFE76CEA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A855ACAF-E62D-4369-814F-E9F5C46C67FB}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="167">
-  <si>
-    <t>Población según el tiempo de diagnóstico del hipoacusia en 2015 (Tasa respuesta: 1,61%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="170">
+  <si>
+    <t>Población según el tiempo de diagnóstico del hipoacusia en 2016 (Tasa respuesta: 1,61%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -83,19 +83,19 @@
     <t>57,47%</t>
   </si>
   <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
   </si>
   <si>
     <t>59,61%</t>
   </si>
   <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,424 +107,433 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>73,6%</t>
+    <t>73,28%</t>
   </si>
   <si>
     <t>26,49%</t>
   </si>
   <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>Ultimos 12 meses</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
     <t>70,44%</t>
   </si>
   <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>Ultimos 12 meses</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
   </si>
   <si>
     <t>71,68%</t>
   </si>
   <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
   </si>
   <si>
     <t>71,16%</t>
   </si>
   <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
   </si>
   <si>
     <t>23,43%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
   </si>
   <si>
     <t>19,84%</t>
   </si>
   <si>
-    <t>32,37%</t>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
   </si>
   <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
   </si>
   <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
   </si>
   <si>
     <t>7,5%</t>
@@ -533,7 +542,7 @@
     <t>3,68%</t>
   </si>
   <si>
-    <t>14,03%</t>
+    <t>14,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -948,7 +957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF9AFF3-2454-4DA9-A44A-9DB7D0E9D768}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D94345-E62B-40AA-9391-59CAD038ADBD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1386,7 +1395,7 @@
         <v>46</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1401,7 +1410,7 @@
         <v>46</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1416,7 +1425,7 @@
         <v>46</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1472,7 +1481,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1484,7 +1493,7 @@
         <v>783</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>22</v>
@@ -1499,7 +1508,7 @@
         <v>2135</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>22</v>
@@ -1514,10 +1523,10 @@
         <v>2917</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>13</v>
@@ -1541,7 +1550,7 @@
         <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1556,7 +1565,7 @@
         <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1571,7 +1580,7 @@
         <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1586,7 +1595,7 @@
         <v>938</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>22</v>
@@ -1601,7 +1610,7 @@
         <v>1050</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
@@ -1616,13 +1625,13 @@
         <v>1988</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1678,7 +1687,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1690,10 +1699,10 @@
         <v>5207</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -1708,7 +1717,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -1720,10 +1729,10 @@
         <v>8266</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -1741,13 +1750,13 @@
         <v>957</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1762,7 +1771,7 @@
         <v>46</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -1771,13 +1780,13 @@
         <v>957</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1798,7 +1807,7 @@
         <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1813,7 +1822,7 @@
         <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1828,7 +1837,7 @@
         <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1884,7 +1893,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1899,7 +1908,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>36</v>
@@ -1911,10 +1920,10 @@
         <v>7907</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -1926,10 +1935,10 @@
         <v>10519</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>13</v>
@@ -1953,7 +1962,7 @@
         <v>46</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -1962,13 +1971,13 @@
         <v>868</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -1977,13 +1986,13 @@
         <v>868</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,7 +2013,7 @@
         <v>46</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2019,7 +2028,7 @@
         <v>46</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2034,7 +2043,7 @@
         <v>46</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,7 +2099,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2102,10 +2111,10 @@
         <v>4035</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
@@ -2117,10 +2126,10 @@
         <v>5842</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
@@ -2132,13 +2141,13 @@
         <v>9877</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,13 +2162,13 @@
         <v>1007</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2168,13 +2177,13 @@
         <v>2272</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -2183,13 +2192,13 @@
         <v>3279</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,7 +2219,7 @@
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2225,7 +2234,7 @@
         <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2240,7 +2249,7 @@
         <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,7 +2305,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2308,13 +2317,13 @@
         <v>7410</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -2323,13 +2332,13 @@
         <v>16552</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -2338,13 +2347,13 @@
         <v>23962</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,13 +2368,13 @@
         <v>3212</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -2374,13 +2383,13 @@
         <v>5630</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -2389,13 +2398,13 @@
         <v>8842</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2419,13 @@
         <v>898</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2425,13 +2434,13 @@
         <v>3280</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
@@ -2440,13 +2449,13 @@
         <v>4177</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,7 +2511,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2514,13 +2523,13 @@
         <v>6393</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -2529,10 +2538,10 @@
         <v>4438</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>13</v>
@@ -2544,13 +2553,13 @@
         <v>10831</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,13 +2574,13 @@
         <v>2831</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -2580,13 +2589,13 @@
         <v>981</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -2595,13 +2604,13 @@
         <v>3813</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,7 +2631,7 @@
         <v>46</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2637,7 +2646,7 @@
         <v>46</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2652,7 +2661,7 @@
         <v>46</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,13 +2729,13 @@
         <v>32490</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H36" s="7">
         <v>42</v>
@@ -2735,13 +2744,13 @@
         <v>46305</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M36" s="7">
         <v>76</v>
@@ -2750,13 +2759,13 @@
         <v>78796</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2780,13 @@
         <v>10809</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H37" s="7">
         <v>12</v>
@@ -2786,13 +2795,13 @@
         <v>12818</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M37" s="7">
         <v>22</v>
@@ -2801,13 +2810,13 @@
         <v>23627</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,13 +2831,13 @@
         <v>2828</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H38" s="7">
         <v>5</v>
@@ -2837,13 +2846,13 @@
         <v>5480</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M38" s="7">
         <v>8</v>
@@ -2852,13 +2861,13 @@
         <v>8307</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,7 +2923,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
